--- a/budiot-vue-admin/public/tpl/template_product_device.xlsx
+++ b/budiot-vue-admin/public/tpl/template_product_device.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11780"/>
+    <workbookView windowHeight="14780"/>
   </bookViews>
   <sheets>
-    <sheet name="用户数据" sheetId="1" r:id="rId1"/>
+    <sheet name="设备数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
